--- a/static/matrices/Investor DTI Matrix.xlsx
+++ b/static/matrices/Investor DTI Matrix.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwulbern\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Walker\Web Pricer\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Investor Solutions" sheetId="1" r:id="rId1"/>
+    <sheet name=" Investor Solutions-DTI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Investor Solutions</t>
   </si>
@@ -181,7 +178,7 @@
     <t>Prepayment Penalty</t>
   </si>
   <si>
-    <t xml:space="preserve"> • 6 months of interest on the amount of the prepayment that exceeds 20% of the original principal balance</t>
+    <t xml:space="preserve"> • 6 months of interest on the amount of the prepayment that exceeds 20% of the original principal balance or 3%/3%/3% structure</t>
   </si>
   <si>
     <t xml:space="preserve"> • Not available for 2nd home transactions</t>
@@ -485,7 +482,7 @@
     <t xml:space="preserve">                        ◦ A, A-, &amp; B+ Grade Only</t>
   </si>
   <si>
-    <t>Eligibile States:</t>
+    <t>Eligible States:</t>
   </si>
   <si>
     <t>Nationwide excluding Puerto Rico, Guam and the US Virgin Islands; DC, MD, NJ and NY restricted to a 680 minimum FICO w/ a max LTV of 75%</t>
@@ -603,7 +600,7 @@
     <t>Financed Properties</t>
   </si>
   <si>
-    <t>• 20 financed properties including subject; exposure to a single borrower not to exceed $3,000,000 or 6 properties;</t>
+    <t>• No limit on financed properties; exposure to a single borrower not to exceed $3,000,000 or 6 properties;</t>
   </si>
   <si>
     <t>• Add 2 months reserves for each additional financed property (including primary residence). Total reserve requirement is not to exceed 24 mo.</t>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>9 mo</t>
+  </si>
+  <si>
+    <t>Effective Date:</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +837,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDCDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1520,7 +1526,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1532,140 +1538,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,12 +1590,6 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1692,6 +1599,12 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1701,26 +1614,8 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1762,29 +1657,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1873,12 +1753,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1891,12 +1765,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1921,9 +1789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1941,9 +1806,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,9 +1821,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1975,9 +1834,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2050,65 +1906,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2128,36 +2140,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Credit Ascent-Primary"/>
-      <sheetName val="Credit Ascent-2nd Home"/>
-      <sheetName val="Investor Solutions"/>
-      <sheetName val="Investor Solution DSCR-No Ratio"/>
-      <sheetName val="Foreign National"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="H1" t="str">
-            <v>Effective Date:</v>
-          </cell>
-          <cell r="I1">
-            <v>42681</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2463,7 +2445,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" activeCellId="2" sqref="E68 G67:G68 I68"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,1335 +2458,1278 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="H1" s="3" t="str">
-        <f>'[1]Credit Ascent-Primary'!$H$1</f>
-        <v>Effective Date:</v>
+      <c r="H1" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I1" s="4">
-        <f>'[1]Credit Ascent-Primary'!$I$1</f>
-        <v>42681</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="214"/>
+      <c r="H2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="198"/>
     </row>
     <row r="4" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="200"/>
+      <c r="C4" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="200"/>
+      <c r="F4" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="205" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="201"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="182"/>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28">
+      <c r="E6" s="188"/>
+      <c r="F6" s="7">
         <v>80</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="8">
         <v>75</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="7">
         <v>75</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37">
+      <c r="E7" s="217"/>
+      <c r="F7" s="12">
         <v>75</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="13">
         <v>75</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="12">
         <v>75</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28">
+      <c r="E8" s="188"/>
+      <c r="F8" s="7">
         <v>80</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="8">
         <v>75</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="7">
         <v>75</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="35" t="s">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="183"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37">
+      <c r="E9" s="217"/>
+      <c r="F9" s="12">
         <v>75</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="13">
         <v>70</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="12">
         <v>75</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="183"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43">
+      <c r="E10" s="219"/>
+      <c r="F10" s="16">
         <v>80</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="17">
         <v>75</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="18">
         <v>75</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="49" t="s">
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="185"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51">
+      <c r="E11" s="190"/>
+      <c r="F11" s="20">
         <v>75</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="13">
         <v>70</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="43">
+      <c r="E12" s="188"/>
+      <c r="F12" s="16">
         <v>80</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="17">
         <v>75</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="7">
         <v>75</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="35" t="s">
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="51">
+      <c r="E13" s="217"/>
+      <c r="F13" s="20">
         <v>75</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="13">
         <v>70</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="34" t="s">
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="185"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56">
+      <c r="E14" s="194"/>
+      <c r="F14" s="23">
         <v>80</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="24">
         <v>70</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="25">
         <v>70</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="194"/>
+      <c r="F15" s="23">
+        <v>75</v>
+      </c>
+      <c r="G15" s="27">
+        <v>70</v>
+      </c>
+      <c r="H15" s="26">
+        <v>70</v>
+      </c>
+      <c r="I15" s="26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="185"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="194"/>
+      <c r="F16" s="26">
+        <v>75</v>
+      </c>
+      <c r="G16" s="27">
+        <v>70</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="192"/>
+      <c r="C17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="206" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="207"/>
+      <c r="F17" s="23">
+        <v>70</v>
+      </c>
+      <c r="G17" s="27">
+        <v>70</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="208" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="209"/>
+      <c r="C18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="206" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="207"/>
+      <c r="F18" s="23">
+        <v>70</v>
+      </c>
+      <c r="G18" s="24">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="H18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="210"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="214"/>
+      <c r="H20" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="196"/>
+    </row>
+    <row r="21" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="212"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="200"/>
+      <c r="C22" s="203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="200"/>
+      <c r="F22" s="205" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="205" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="205" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="201"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+    </row>
+    <row r="24" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="182"/>
+      <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="188"/>
+      <c r="F24" s="18">
+        <v>75</v>
+      </c>
+      <c r="G24" s="34">
+        <v>75</v>
+      </c>
+      <c r="H24" s="18">
+        <v>75</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="183"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="190"/>
+      <c r="F25" s="36">
+        <v>70</v>
+      </c>
+      <c r="G25" s="37">
+        <v>70</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="188"/>
+      <c r="F26" s="7">
+        <v>70</v>
+      </c>
+      <c r="G26" s="40">
+        <v>70</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="191" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="192"/>
+      <c r="C27" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="194"/>
+      <c r="F27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="25">
+        <v>75</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="179"/>
+      <c r="F29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="54" t="s">
+      <c r="H29" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="177"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="180">
+        <v>680</v>
+      </c>
+      <c r="E30" s="180"/>
+      <c r="F30" s="48">
+        <v>660</v>
+      </c>
+      <c r="G30" s="48">
+        <v>580</v>
+      </c>
+      <c r="H30" s="48">
+        <v>580</v>
+      </c>
+      <c r="I30" s="48">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="177"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="180"/>
+      <c r="F31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="177"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="178"/>
+      <c r="F32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="177"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="178"/>
+      <c r="F33" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="177"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="178"/>
+      <c r="F34" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="177"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="178"/>
+      <c r="F35" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="58"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="67"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="69">
+        <v>70</v>
+      </c>
+      <c r="C42" s="70">
+        <v>65</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="71">
+        <v>0.65</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="72"/>
+      <c r="H42" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="73"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="75">
+        <v>65</v>
+      </c>
+      <c r="C43" s="76">
+        <v>65</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="F43" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="78"/>
+      <c r="H43" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="78"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="80">
+        <v>70</v>
+      </c>
+      <c r="C44" s="81">
+        <v>65</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="83"/>
+      <c r="H44" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="83"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="85"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="89"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="167"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="93"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="167"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="93"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="167"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="93"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="167"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="91"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="96"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="167"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="96"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="168"/>
+      <c r="B52" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="103"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="108"/>
+      <c r="I53" s="109"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="172"/>
+      <c r="B54" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="111"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="114"/>
+      <c r="I54" s="115"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="172"/>
+      <c r="B55" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="114"/>
+      <c r="I55" s="115"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="173"/>
+      <c r="B56" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="117"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="128"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="132" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="133"/>
+      <c r="F58" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="134"/>
+      <c r="H58" s="135" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="133"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="52"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="166" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="55"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="167"/>
+      <c r="B61" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="140"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="144"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="174" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="55"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="175"/>
+      <c r="B64" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="147"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="164" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="165"/>
+      <c r="F65" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="165"/>
+      <c r="H65" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="167"/>
+      <c r="B66" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="151"/>
+      <c r="D66" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" s="153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="167"/>
+      <c r="B67" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56">
-        <v>75</v>
-      </c>
-      <c r="G15" s="57">
-        <v>65</v>
-      </c>
-      <c r="H15" s="58">
-        <v>65</v>
-      </c>
-      <c r="I15" s="58">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56">
-        <v>70</v>
-      </c>
-      <c r="G16" s="57">
-        <v>65</v>
-      </c>
-      <c r="H16" s="60" t="s">
+      <c r="C67" s="154"/>
+      <c r="D67" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="156" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="155" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="H67" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="158" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="168"/>
+      <c r="B68" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="159"/>
+      <c r="D68" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="161" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="56">
-        <v>70</v>
-      </c>
-      <c r="G17" s="57">
-        <v>65</v>
-      </c>
-      <c r="H17" s="60" t="s">
+      <c r="F68" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="56">
-        <v>70</v>
-      </c>
-      <c r="G18" s="57">
-        <v>65</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="31" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="45">
-        <v>75</v>
-      </c>
-      <c r="G24" s="71">
-        <v>75</v>
-      </c>
-      <c r="H24" s="45">
-        <v>75</v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="73">
-        <v>70</v>
-      </c>
-      <c r="G25" s="74">
-        <v>70</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28">
-        <v>70</v>
-      </c>
-      <c r="G26" s="77">
-        <v>70</v>
-      </c>
-      <c r="H26" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="58">
-        <v>75</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88">
-        <v>680</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89">
-        <v>660</v>
-      </c>
-      <c r="G30" s="89">
-        <v>580</v>
-      </c>
-      <c r="H30" s="89">
-        <v>580</v>
-      </c>
-      <c r="I30" s="89">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="90" t="s">
+      <c r="H68" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="97"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="100"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="94"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="109"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="111">
-        <v>70</v>
-      </c>
-      <c r="C42" s="112">
-        <v>65</v>
-      </c>
-      <c r="D42" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="113">
-        <v>0.65</v>
-      </c>
-      <c r="F42" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="114"/>
-      <c r="H42" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="115"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="117">
-        <v>65</v>
-      </c>
-      <c r="C43" s="118">
-        <v>65</v>
-      </c>
-      <c r="D43" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="119">
-        <v>0.6</v>
-      </c>
-      <c r="F43" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="120"/>
-      <c r="H43" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="120"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="122">
-        <v>70</v>
-      </c>
-      <c r="C44" s="123">
-        <v>65</v>
-      </c>
-      <c r="D44" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="124">
-        <v>0.6</v>
-      </c>
-      <c r="F44" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="125"/>
-      <c r="H44" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="125"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="131"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="133"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="137"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="139"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="136" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="139"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="137"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="139"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="137"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="142"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="137"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="142"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="144"/>
-      <c r="B52" s="145" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="146" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="150"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="151" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="156"/>
-      <c r="I53" s="157"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="158"/>
-      <c r="B54" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="160"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="163"/>
-      <c r="I54" s="164"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="158"/>
-      <c r="B55" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55" s="163"/>
-      <c r="I55" s="164"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="165"/>
-      <c r="B56" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="167"/>
-      <c r="D56" s="168"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="170" t="s">
-        <v>89</v>
-      </c>
-      <c r="H56" s="171"/>
-      <c r="I56" s="172"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="174" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="175"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="177"/>
-      <c r="I57" s="178"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="179" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="180" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="181" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="183"/>
-      <c r="F58" s="184" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="184"/>
-      <c r="H58" s="185" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58" s="183"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="94"/>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="186" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="187"/>
-      <c r="D60" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="97"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="188" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="189"/>
-      <c r="F61" s="189"/>
-      <c r="G61" s="189"/>
-      <c r="H61" s="189"/>
-      <c r="I61" s="190"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="191" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="192" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="193"/>
-      <c r="D62" s="193"/>
-      <c r="E62" s="193"/>
-      <c r="F62" s="193"/>
-      <c r="G62" s="193"/>
-      <c r="H62" s="193"/>
-      <c r="I62" s="194"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="195" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="196" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="97"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="197"/>
-      <c r="B64" s="198" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="100"/>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="199"/>
-      <c r="C65" s="200"/>
-      <c r="D65" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="202"/>
-      <c r="F65" s="201" t="s">
-        <v>111</v>
-      </c>
-      <c r="G65" s="202"/>
-      <c r="H65" s="203" t="s">
-        <v>112</v>
-      </c>
-      <c r="I65" s="203" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="134"/>
-      <c r="B66" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="205"/>
-      <c r="D66" s="206" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="207" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="206" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="207" t="s">
-        <v>114</v>
-      </c>
-      <c r="H66" s="207" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" s="207" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="134"/>
-      <c r="B67" s="208" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="208"/>
-      <c r="D67" s="209" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="210" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="209" t="s">
-        <v>117</v>
-      </c>
-      <c r="G67" s="211" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="212" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67" s="212" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="144"/>
-      <c r="B68" s="213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="213"/>
-      <c r="D68" s="214" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="215" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="214" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="215" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="216" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68" s="217" t="s">
+      <c r="I68" s="163" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A6:B11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:I3"/>
@@ -3815,9 +3740,64 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A6:B11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>